--- a/StressTests/PyroTests/single-node/resultats_tests.xlsx
+++ b/StressTests/PyroTests/single-node/resultats_tests.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,35 @@
       </c>
       <c r="G2" t="n">
         <v>194.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Single-node</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>190.88</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +614,69 @@
         <v>194.33</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Single-node</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>191.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-18 14:10:16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Single-node</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="H4" t="n">
+        <v>151.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
